--- a/data/server_message.xlsx
+++ b/data/server_message.xlsx
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -117,21 +117,51 @@
           <t>password</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>enable</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>127.0.0.1</t>
+          <t>192.168.0.107</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>root</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>1231231232131</t>
+          <t>980322</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Linux</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>192.168.0.107:root</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
